--- a/Checklists/CHECKLIST GERAL.xlsx
+++ b/Checklists/CHECKLIST GERAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathansuenaga/Google Drive/Tables_Newbies/Checklists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathansuenaga/Dev/OpsFESP/Checklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>CHECKLIST GERAL</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>7. Se existem cursos ilimitados ja publicados e chegam limitados, se a tarefa n fala nada, despublica os ilimitados? SIM! &lt;JV&gt;</t>
+  </si>
+  <si>
+    <t>8. Bolsa simples = Bolsa ilimitada</t>
   </si>
 </sst>
 </file>
@@ -526,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -805,6 +808,11 @@
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Checklists/CHECKLIST GERAL.xlsx
+++ b/Checklists/CHECKLIST GERAL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathansuenaga/Dev/OpsFESP/Checklists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hmmoreira/Google Drive/Tabelas/7 - NbOps/Checklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27320" yWindow="-580" windowWidth="27320" windowHeight="13300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GERAL" sheetId="1" r:id="rId1"/>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -852,11 +852,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G1" t="s">
